--- a/20180126_SmartCut/Models/00 結構設計變數.xlsx
+++ b/20180126_SmartCut/Models/00 結構設計變數.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\VbaProject\20180126_SmartCut\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9B7494-3238-4CF6-89A6-02F43F91E2D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EEBEEC-F38D-4176-83FD-926AB3F26904}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <r>
       <rPr>
@@ -554,6 +554,19 @@
   </si>
   <si>
     <t>Rigid Zone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>強柱弱梁</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +612,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -620,17 +633,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -667,7 +669,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2786,10 +2788,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="B1:L6"/>
+  <dimension ref="B1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2808,7 +2810,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>7</v>
       </c>
@@ -2823,8 +2825,9 @@
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
     </row>
-    <row r="2" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2855,8 +2858,11 @@
       <c r="L2" s="8" t="s">
         <v>36</v>
       </c>
+      <c r="M2" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -2887,8 +2893,11 @@
       <c r="L3" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="M3" s="6">
+        <v>1.2</v>
+      </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
@@ -2898,6 +2907,7 @@
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="F4" s="6"/>
       <c r="I4" s="6" t="s">
         <v>30</v>
       </c>
@@ -2907,7 +2917,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
@@ -2917,6 +2927,7 @@
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="F5" s="6"/>
       <c r="I5" s="6" t="s">
         <v>32</v>
       </c>
@@ -2926,7 +2937,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
@@ -2946,7 +2957,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="F1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/20180126_SmartCut/Models/00 結構設計變數.xlsx
+++ b/20180126_SmartCut/Models/00 結構設計變數.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\VbaProject\20180126_SmartCut\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EEBEEC-F38D-4176-83FD-926AB3F26904}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="總則" sheetId="1" r:id="rId1"/>
@@ -44,7 +43,7 @@
     <definedName name="Gp_20">[1]地震行政區資料!$M$433:$M$445</definedName>
     <definedName name="N_1">[1]地震行政區資料!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <r>
       <rPr>
@@ -567,13 +566,29 @@
       </rPr>
       <t>強柱弱梁</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SM1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -612,7 +627,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -638,13 +653,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -666,10 +690,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2786,12 +2819,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="B1:M6"/>
+  <dimension ref="B1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B9" sqref="B9:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2811,21 +2844,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="F1" s="7" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" spans="2:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -2837,28 +2870,28 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2866,9 +2899,7 @@
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
@@ -2901,7 +2932,7 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="10">
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -2921,9 +2952,7 @@
       <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6">
-        <v>12</v>
-      </c>
+      <c r="C5" s="9"/>
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2941,9 +2970,7 @@
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6">
-        <v>20</v>
-      </c>
+      <c r="C6" s="9"/>
       <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
@@ -2954,10 +2981,68 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
+    <row r="9" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="2:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="6">
+        <v>12</v>
+      </c>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="6">
+        <v>20</v>
+      </c>
+      <c r="D14" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="F1:M1"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2966,12 +3051,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63AB1FB2-8A68-4A07-B72B-991F91E9D943}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表2"/>
-  <dimension ref="B1:I4"/>
+  <dimension ref="B1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2981,14 +3066,18 @@
     <col min="3" max="3" width="7.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="5.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
@@ -2998,17 +3087,29 @@
       <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="2">
+      <c r="L1" s="2">
         <v>1</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
@@ -3021,14 +3122,26 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="2">
+      <c r="F2" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="L2" s="2">
         <v>2</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
@@ -3041,8 +3154,20 @@
       <c r="E3" s="2">
         <v>2</v>
       </c>
+      <c r="F3" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.54</v>
+      </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
@@ -3054,10 +3179,23 @@
       </c>
       <c r="E4" s="2">
         <v>3</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/20180126_SmartCut/Models/00 結構設計變數.xlsx
+++ b/20180126_SmartCut/Models/00 結構設計變數.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\VbaProject\20180126_SmartCut\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270A91AA-1BA6-4A11-88EC-7566886B4D02}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="總則" sheetId="1" r:id="rId1"/>
@@ -48,12 +49,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -442,6 +437,28 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve"> 0.2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>辦公室</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> 0.3</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -455,6 +472,78 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
+      <t>公共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0.4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>柱底</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rigid Zone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>強柱弱梁</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SM1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
       <t>住宅</t>
     </r>
     <r>
@@ -464,7 +553,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 0.2</t>
+      <t xml:space="preserve"> 1.3~1.6</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -486,110 +575,16 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 0.2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>辦公室</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 0.3</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公共</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 0.4</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FIX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>柱底</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rigid Zone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>強柱弱梁</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SD1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SM1</t>
+      <t xml:space="preserve"> 1.1~1.3</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -617,6 +612,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -668,7 +670,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -696,13 +698,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2819,12 +2824,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="工作表1"/>
   <dimension ref="B1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D14"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2886,13 +2891,13 @@
         <v>29</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
@@ -2913,7 +2918,7 @@
         <v>4200</v>
       </c>
       <c r="I3" s="6">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="J3" s="6">
         <v>0.3</v>
@@ -2922,7 +2927,7 @@
         <v>0.75</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M3" s="6">
         <v>1.2</v>
@@ -2932,18 +2937,18 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="6"/>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -2952,16 +2957,16 @@
       <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="I5" s="6" t="s">
-        <v>32</v>
+      <c r="I5" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -2970,13 +2975,13 @@
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -3011,13 +3016,13 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="4">
         <v>4</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3051,7 +3056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="工作表2"/>
   <dimension ref="B1:M4"/>
   <sheetViews>
@@ -3088,16 +3093,16 @@
         <v>12</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>21</v>
